--- a/yield_prediction/results/graph_descriptors/WLlinear_5/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLlinear_5/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.627</v>
+        <v>16.638</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.707</v>
+        <v>0.6919999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.427</v>
+        <v>14.787</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.958</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.631</v>
+        <v>5.013</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8.813592471912298</v>
+        <v>11.39831267826728</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>16.87872177989959</v>
+        <v>17.01846511093311</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>14.48828452321927</v>
+        <v>14.13943704311074</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>14.80714670701872</v>
+        <v>14.507407416762</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>17.69675038406245</v>
+        <v>19.41642680732618</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>27.56091474376843</v>
+        <v>27.56277150709911</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3.504560376716618</v>
+        <v>7.892158631305637</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>21.04970044387466</v>
+        <v>21.09541148098791</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30.14402269122694</v>
+        <v>28.86708256565321</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.6464842209533</v>
+        <v>28.41217715543725</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>12.26282752543742</v>
+        <v>18.82406641783019</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>36.88503238277036</v>
+        <v>39.20315691299043</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-0.9592360705437386</v>
+        <v>3.633366159100664</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>16.14846976250578</v>
+        <v>16.43321971600025</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>24.73843035700432</v>
+        <v>23.1473705310501</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>25.65674155188916</v>
+        <v>24.00451657159945</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5.132118432105251</v>
+        <v>11.87325945831117</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>27.79551419237983</v>
+        <v>29.23061832472603</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-4.071569875084567</v>
+        <v>1.437993112880331</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>12.66500952657232</v>
+        <v>14.16561696124072</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>21.27348080377654</v>
+        <v>20.6819414313109</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>23.3659585176997</v>
+        <v>22.25433227748616</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>7.361782768843458</v>
+        <v>13.75015585757247</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>26.6320000045222</v>
+        <v>28.58977197933928</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>24.96824915408115</v>
+        <v>24.71280047773579</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.88381075052386</v>
+        <v>28.20585141770696</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>13.57493943629418</v>
+        <v>16.91275199586415</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>25.87332727889743</v>
+        <v>26.91530147628634</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>26.34738579577347</v>
+        <v>25.96895796553686</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>30.82428653766502</v>
+        <v>29.3209925554095</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>48.6051173052914</v>
+        <v>49.16660311773057</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>53.9660059096113</v>
+        <v>53.39804751468414</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>16.97278833257946</v>
+        <v>25.21548305475713</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>48.32311337040456</v>
+        <v>51.51542931783783</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>64.82166951186892</v>
+        <v>64.02018980641415</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>67.65332762461701</v>
+        <v>65.65783131354659</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>37.96412689159389</v>
+        <v>37.1486822291717</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>47.07886954909974</v>
+        <v>45.17356141503247</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>10.72602610561604</v>
+        <v>19.0357888986516</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>42.59539070509199</v>
+        <v>44.63333543658857</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>57.53683609009075</v>
+        <v>55.78314038414356</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>63.19065290611298</v>
+        <v>60.50688414558546</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30.89399095673449</v>
+        <v>30.76501209897517</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>41.05126655706314</v>
+        <v>39.32948004321997</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>13.24007768975768</v>
+        <v>21.49956002189511</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>41.55118474621738</v>
+        <v>44.25358586948839</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>51.93550198246569</v>
+        <v>51.72675662729959</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>60.35103180821921</v>
+        <v>58.43446433300409</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>10.89081300665527</v>
+        <v>16.85747704432549</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>38.9605927548918</v>
+        <v>39.77616410220709</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>35.41440828753972</v>
+        <v>35.37728271983361</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>38.51563092397006</v>
+        <v>37.43672967816493</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>11.27789424549304</v>
+        <v>14.82268242695796</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>31.17829507688382</v>
+        <v>31.20021178174568</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>7.47627093857789</v>
+        <v>15.17823604204708</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>43.75604198661091</v>
+        <v>44.2652196855647</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>51.43997114322605</v>
+        <v>49.7423350608932</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>52.40519134388059</v>
+        <v>49.95999866816468</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>8.414603943209258</v>
+        <v>16.09207321669727</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>41.10213836201191</v>
+        <v>43.32992598524738</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>4.914581893347759</v>
+        <v>13.02639153139491</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>40.35687181220437</v>
+        <v>41.38824514759891</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>49.27466501301896</v>
+        <v>48.75378664625099</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>51.17307040931206</v>
+        <v>49.53165231508321</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>3.87356211957222</v>
+        <v>12.33522691688579</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>33.98034553068639</v>
+        <v>36.28128316276857</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>2.067913673459834</v>
+        <v>10.3247036146867</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>37.74507299806135</v>
+        <v>38.8254402682465</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>46.4528672410196</v>
+        <v>45.40472457425514</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>50.44523017748163</v>
+        <v>48.1560177326697</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>2.499213799465458</v>
+        <v>10.94098133096265</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>28.8481585939349</v>
+        <v>31.75069940875204</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>30.77926617045379</v>
+        <v>29.06039338280094</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>35.16520020574213</v>
+        <v>32.22327661550051</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>9.26528823448268</v>
+        <v>15.32983799531025</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>33.06048873458697</v>
+        <v>34.69858256476449</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>34.79303517433775</v>
+        <v>34.37763351095182</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>42.32948755345064</v>
+        <v>39.9143269948495</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>52.51348886121679</v>
+        <v>50.20984040287006</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>57.07735283164223</v>
+        <v>53.12544841871541</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>10.16231458607812</v>
+        <v>19.52018206032833</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>51.62319385175061</v>
+        <v>53.81234734078349</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>65.78552855308484</v>
+        <v>63.20574421802588</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>69.05999032041221</v>
+        <v>64.96722002793916</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>45.40314307020819</v>
+        <v>43.54875983916857</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>52.90338640424056</v>
+        <v>49.16220524544836</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>5.206950036621354</v>
+        <v>15.42158661160924</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>46.59906187869138</v>
+        <v>48.42974567854358</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>60.35576267277793</v>
+        <v>58.2497965962236</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>65.34605203223774</v>
+        <v>61.95612710218528</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>35.17887885867151</v>
+        <v>34.64068850625222</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>44.17998077524405</v>
+        <v>41.6060229351295</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>5.50272920603075</v>
+        <v>15.34612434488214</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>42.88818504896619</v>
+        <v>45.40066393561806</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>54.01438511911046</v>
+        <v>52.89000908084154</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>62.34700558091909</v>
+        <v>59.17003362088685</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>10.26366957597513</v>
+        <v>13.50104948070253</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>34.39971848038046</v>
+        <v>33.66534096225934</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>33.21885644816768</v>
+        <v>31.19900599809997</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>33.86743870804115</v>
+        <v>31.74938232962241</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>12.634079796242</v>
+        <v>16.40161570114057</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>35.20323369971705</v>
+        <v>34.27968001825925</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>10.20058123905654</v>
+        <v>17.0217696921616</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>44.26072919578272</v>
+        <v>44.08346413279011</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>54.62717314029619</v>
+        <v>53.20625856452395</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>53.34873652094083</v>
+        <v>52.27990662936382</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>11.0021714530722</v>
+        <v>19.11668342867005</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>47.57441614034242</v>
+        <v>47.97726517285562</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>7.349305943287746</v>
+        <v>12.65527591133872</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>41.38208607717099</v>
+        <v>40.22303154780288</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>52.09395533208921</v>
+        <v>49.06921145914134</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>51.75652878539515</v>
+        <v>48.60009787710143</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>7.540052002230922</v>
+        <v>16.13512218568258</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>42.29742279531229</v>
+        <v>43.06285967597832</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>5.529462991838997</v>
+        <v>12.89712334398085</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>39.9325956836349</v>
+        <v>41.48780535766453</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>49.97846677427256</v>
+        <v>49.11434303782155</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>51.31870128698137</v>
+        <v>49.81569407571554</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>7.640693250546601</v>
+        <v>15.79020943895484</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>38.98761782471796</v>
+        <v>40.61236629724394</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>37.74541906390337</v>
+        <v>35.2323713481504</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>38.56423202436592</v>
+        <v>36.22990668745685</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>10.21697837641704</v>
+        <v>16.15192050855612</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>35.20263083646455</v>
+        <v>35.52704596579795</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>40.04859053455127</v>
+        <v>38.68472432638175</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>43.81022353111434</v>
+        <v>42.13967148831622</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>62.46873989532452</v>
+        <v>59.58090600427876</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>63.28246990794923</v>
+        <v>60.51775028426628</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>13.17168156912556</v>
+        <v>22.5596953004833</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>56.84413415709824</v>
+        <v>56.75194346387846</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>74.7569733330287</v>
+        <v>71.41485039533384</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>74.23486199880921</v>
+        <v>71.3080471073575</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>56.57687828012446</v>
+        <v>53.88501047311985</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>59.95324470614088</v>
+        <v>56.83447052250708</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>8.906399444929143</v>
+        <v>18.47167550984602</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>53.42506586656328</v>
+        <v>52.88531473720219</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>70.39976512494297</v>
+        <v>66.67198349515961</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>71.19209648074298</v>
+        <v>67.8455556364861</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>47.52599613260902</v>
+        <v>45.92636546806975</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>51.85691662943714</v>
+        <v>49.24696797775331</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>10.18595558853692</v>
+        <v>19.42785934218931</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>51.64855395742762</v>
+        <v>52.56666671978356</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>65.21220287215004</v>
+        <v>62.89499688928719</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>68.46451607715332</v>
+        <v>65.43199055222667</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>12.53199139716058</v>
+        <v>16.14135959730616</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>17.31865065652003</v>
+        <v>17.74303079597719</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>23.37225515043957</v>
+        <v>25.57390077195473</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>23.66675806868434</v>
+        <v>26.14070387788693</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>14.95223868274386</v>
+        <v>16.8077187899616</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>23.53974266711608</v>
+        <v>24.7868422011273</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>8.541982386185687</v>
+        <v>14.79023856083918</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>22.94764860277849</v>
+        <v>24.34389284780647</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>39.69677569900277</v>
+        <v>42.02458997143371</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>39.42709601868157</v>
+        <v>42.3042725072749</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>13.77516452149079</v>
+        <v>22.35752772672294</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>36.85919041954968</v>
+        <v>42.83608934782089</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>3.734340557493663</v>
+        <v>9.122916937176161</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>17.81574901090228</v>
+        <v>18.38690168717526</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>33.46092469034499</v>
+        <v>33.74490300770028</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>34.48262308176631</v>
+        <v>35.23696838588818</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>6.691692127364682</v>
+        <v>13.67631887452336</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>27.7362639850233</v>
+        <v>30.84583771279234</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>1.084817303269734</v>
+        <v>7.217085303735367</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>14.83193453454698</v>
+        <v>16.47316746031387</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>29.95834439400583</v>
+        <v>31.42827448299369</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>32.0920616074171</v>
+        <v>33.49793156131573</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>6.345367589178316</v>
+        <v>12.9119291804897</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>24.02054848928199</v>
+        <v>27.24470026712441</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>20.51345144608216</v>
+        <v>19.29257933932215</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>25.98462322703779</v>
+        <v>22.93553880548261</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>10.83534891209434</v>
+        <v>13.90095689761774</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>20.32215857109871</v>
+        <v>22.00255248082905</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>21.87874532433219</v>
+        <v>20.97240066701122</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>27.84065118428877</v>
+        <v>24.69557252820093</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>48.32997016585725</v>
+        <v>50.04868325984309</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>55.59616814892463</v>
+        <v>55.02707626772322</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>19.05859515538978</v>
+        <v>28.16324286628274</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>46.63194275060553</v>
+        <v>52.43489474943388</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>64.50402112502303</v>
+        <v>64.95098582490088</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>69.36510991999148</v>
+        <v>67.60838311077777</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>37.69085269778832</v>
+        <v>35.7374309951804</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>48.45039398641008</v>
+        <v>44.47857281391927</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>12.63458192185511</v>
+        <v>19.54496063045696</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>40.25471188777648</v>
+        <v>42.23903760326556</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>56.69522437082176</v>
+        <v>53.0889958314539</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>64.23964520297785</v>
+        <v>58.91047273222483</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>27.36737393026716</v>
+        <v>26.28530490877209</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>38.86316498874545</v>
+        <v>35.45183420603986</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>11.17142930880823</v>
+        <v>19.06589911266</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>35.44357035298358</v>
+        <v>38.86619721161239</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>46.7358660619663</v>
+        <v>45.85640748937463</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>56.60886580274892</v>
+        <v>53.29341507480156</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>7.130188105599526</v>
+        <v>9.925563792512108</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>32.88478371503113</v>
+        <v>30.64073431383104</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>31.71323842850627</v>
+        <v>29.69162260311195</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>30.78590295725252</v>
+        <v>28.71867264188369</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>15.97632599297576</v>
+        <v>20.14704764455263</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>38.14813049071842</v>
+        <v>38.27065336367147</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>9.772933682970784</v>
+        <v>16.80051010827727</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>46.11237079600362</v>
+        <v>46.5830274065773</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>56.7388291307598</v>
+        <v>55.54471118686496</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>54.69632108111705</v>
+        <v>53.74613605231495</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>12.99250598990255</v>
+        <v>21.71413134913379</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>49.39887676471968</v>
+        <v>51.46885610702111</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>8.557176727349145</v>
+        <v>15.60563016346105</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>45.02133213420768</v>
+        <v>45.6495548797799</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>56.14701530924954</v>
+        <v>54.83894727865131</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>55.15805454002968</v>
+        <v>53.91275424418035</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>9.260373031677375</v>
+        <v>18.23538591869955</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>44.25273760348593</v>
+        <v>45.98150769081391</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>7.018390920513347</v>
+        <v>14.45121679595058</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>44.27957367597327</v>
+        <v>45.73500637370226</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>55.38134973288841</v>
+        <v>54.97760321852113</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>55.24492063924194</v>
+        <v>54.31834244063933</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>11.25653553222894</v>
+        <v>19.65018345309034</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>44.78986542968688</v>
+        <v>46.86087607949467</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>41.21866942408271</v>
+        <v>39.77437451755661</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>41.78946254897856</v>
+        <v>39.90743686552098</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>12.53712565569421</v>
+        <v>17.79128380206328</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>33.76967809483737</v>
+        <v>34.13540140830045</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>38.26890085275065</v>
+        <v>37.1803957730033</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>41.06884067559586</v>
+        <v>39.55819449974872</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>68.5542444108622</v>
+        <v>66.8607473903734</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>69.80952010864624</v>
+        <v>67.33801211143462</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>14.84941109111432</v>
+        <v>24.44794609684633</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>54.00541230107196</v>
+        <v>55.98206847486452</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>75.27517943431326</v>
+        <v>72.64970787525633</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>75.77071282618087</v>
+        <v>72.84484779440129</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>62.73722173092281</v>
+        <v>60.15548611368867</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>10.28819772944585</v>
+        <v>19.39810006657658</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>50.10987392571037</v>
+        <v>50.51622387881997</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>70.60295489773611</v>
+        <v>66.61443495330974</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>73.22705932688962</v>
+        <v>68.93177929873231</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>55.83459799459025</v>
+        <v>53.83221007911041</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>60.7139057351491</v>
+        <v>57.03923447380159</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>14.61141028288911</v>
+        <v>24.09504259126905</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>52.88192072874454</v>
+        <v>54.51933006257327</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>68.28947140704921</v>
+        <v>66.3780056555585</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>73.15831933532078</v>
+        <v>69.95116124068869</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>6.606400373701824</v>
+        <v>9.890610571457156</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>36.72510139848346</v>
+        <v>35.27231016236221</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>33.64570587489503</v>
+        <v>31.45128347688841</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>33.78510206324057</v>
+        <v>31.73398135245784</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>13.98596843497842</v>
+        <v>19.02290651116327</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>41.52905181728215</v>
+        <v>41.32990235229476</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>6.265683141611532</v>
+        <v>12.69061281695784</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>44.18007473253398</v>
+        <v>43.55261080169931</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>53.17734557093317</v>
+        <v>50.4312551080296</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>51.37644541431631</v>
+        <v>49.26418705057313</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>10.60264811944897</v>
+        <v>19.85229512065398</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>50.45227394318843</v>
+        <v>51.84680063275066</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>3.606343445823537</v>
+        <v>9.75993685584772</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>41.92977775880465</v>
+        <v>41.24538085398705</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>53.00597372505673</v>
+        <v>52.49228844682884</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>51.52887957834804</v>
+        <v>51.11958613245099</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>6.150131904038851</v>
+        <v>15.22348087818103</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>44.96047967131697</v>
+        <v>45.97595571694375</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>4.690597020386896</v>
+        <v>11.72321334080604</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>45.18923433569289</v>
+        <v>45.41399646890231</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>55.00183403175949</v>
+        <v>54.96088750399959</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>55.03773016146809</v>
+        <v>54.95170590010247</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>6.649671687888631</v>
+        <v>15.22122180290203</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>43.28037475057995</v>
+        <v>44.39477407329219</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>41.77305528786342</v>
+        <v>40.09404435960591</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>43.25564327923192</v>
+        <v>41.36174436084188</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>11.3352284953134</v>
+        <v>16.98952684443113</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>37.4621397201559</v>
+        <v>37.41220404871409</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>39.54634825611828</v>
+        <v>38.33453436286075</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>44.04634572286925</v>
+        <v>41.94540798391375</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>63.66307292544823</v>
+        <v>61.37564726221528</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>64.59605497448507</v>
+        <v>62.05074707865485</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>12.61933134951813</v>
+        <v>21.93634751982043</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>69.35594442397945</v>
+        <v>66.16347432197651</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>70.11679572773986</v>
+        <v>66.73273712493646</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>58.12494705942893</v>
+        <v>55.73796519315326</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>61.11210825475089</v>
+        <v>58.04615458782516</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>8.286043176318913</v>
+        <v>17.74254752711666</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>51.02691666984026</v>
+        <v>50.87616163817371</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>65.71269124983655</v>
+        <v>62.81089308833461</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>67.54069128048008</v>
+        <v>64.42788634431056</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>49.6747863260449</v>
+        <v>47.76682364583334</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>53.96845461265254</v>
+        <v>51.12387737830846</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>11.21247255439087</v>
+        <v>20.63299400451433</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>52.25680769531998</v>
+        <v>52.98861765667804</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>63.05353189400698</v>
+        <v>61.18829283937544</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>67.47032765250297</v>
+        <v>64.71663747974219</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>5.941340681702364</v>
+        <v>7.906538658799416</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>11.74213093215458</v>
+        <v>12.90643110947656</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>14.61689406902072</v>
+        <v>15.00823597341878</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>15.07722460530985</v>
+        <v>15.2330294578515</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>12.90708840548827</v>
+        <v>15.52531232308461</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>24.6039134928012</v>
+        <v>25.0219686682407</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>0.2517071683629908</v>
+        <v>4.47082494385679</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>14.06087616480119</v>
+        <v>15.74894303018537</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>26.77218347276995</v>
+        <v>27.08587779716906</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>26.57644710028746</v>
+        <v>26.63201631424251</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>9.483174180814292</v>
+        <v>15.3174891374637</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>33.75557084567334</v>
+        <v>34.75351716408051</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-4.45519301559332</v>
+        <v>-0.3414121714297131</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>8.983957077051764</v>
+        <v>10.81452860432366</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>21.55822404882695</v>
+        <v>21.73622595372836</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>22.50974107549944</v>
+        <v>22.03282216940652</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>4.100788469862383</v>
+        <v>11.04528759695693</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>26.45886015763229</v>
+        <v>28.10606431244301</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-6.901597636516016</v>
+        <v>-2.033676984607599</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>6.503483718553372</v>
+        <v>8.939108860875596</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>17.43144653777015</v>
+        <v>17.65657991681761</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>19.26949473554556</v>
+        <v>18.83514845842306</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>5.273458596726957</v>
+        <v>11.63327577095548</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>24.57807247429468</v>
+        <v>26.87049022222453</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>24.35237956979974</v>
+        <v>23.95791655115385</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>26.74081039814017</v>
+        <v>25.86464397386299</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>9.0100543010658</v>
+        <v>12.86483557098578</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>23.44805183446641</v>
+        <v>24.39005406851854</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>29.12346273261969</v>
+        <v>28.11493421463058</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>32.92346361682884</v>
+        <v>31.10350625313415</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>43.84540493169458</v>
+        <v>42.71370356137919</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>47.69582557024908</v>
+        <v>45.44094618095395</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>14.63933556752119</v>
+        <v>21.79185829947392</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>45.87938735747625</v>
+        <v>46.89839392170933</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>62.98843949458613</v>
+        <v>60.56308265723084</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>65.01206851218383</v>
+        <v>61.84323559177803</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>35.56339978977721</v>
+        <v>34.96399562406071</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>42.45251760381772</v>
+        <v>40.36816140567213</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>10.28568146450642</v>
+        <v>17.76234077361493</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>42.30816705251419</v>
+        <v>43.02256191177064</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>58.06591729412533</v>
+        <v>55.3038756953809</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>62.03141384418271</v>
+        <v>58.44214119905885</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>28.69867379586726</v>
+        <v>28.68434999504352</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>35.75315953745479</v>
+        <v>33.9598565978369</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>11.29549914389396</v>
+        <v>19.0068458606498</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>41.14330195238192</v>
+        <v>43.39673664705843</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>53.10030051946141</v>
+        <v>51.8635956610989</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>58.49213577120442</v>
+        <v>55.85208517427013</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>8.249872479771931</v>
+        <v>9.790904119547566</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>11.41734378391509</v>
+        <v>12.68254514714384</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>7.908279716936864</v>
+        <v>10.17671924278811</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>8.12302057517595</v>
+        <v>9.569149038112698</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>10.81653406999681</v>
+        <v>13.87382210630083</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>10.01235570575226</v>
+        <v>13.45860932579671</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>1.257000858300117</v>
+        <v>4.229528736926667</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>12.9231338365153</v>
+        <v>13.75007000765949</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>18.9051008852553</v>
+        <v>19.63999299584682</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>18.46464489942612</v>
+        <v>18.73113489653122</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-2.356329298929538</v>
+        <v>2.538593819691993</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>9.191413429661328</v>
+        <v>12.11881797416864</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-2.218264114652349</v>
+        <v>1.548671774970263</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>8.973246520849088</v>
+        <v>10.46645817259833</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>14.31671508479791</v>
+        <v>14.85536488997722</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>15.09987046412187</v>
+        <v>14.98039636542519</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-6.835370987181186</v>
+        <v>-0.0138506921342163</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>2.593628771375439</v>
+        <v>6.516255970471111</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>-6.116156667760485</v>
+        <v>-2.557207714280221</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>5.160837914912598</v>
+        <v>6.520328717992562</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>10.49773858918584</v>
+        <v>10.0796381836466</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>12.38727189778868</v>
+        <v>10.7637915495728</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>-4.96064273580804</v>
+        <v>0.2961471250521548</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>2.284778410002254</v>
+        <v>5.409274440278601</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>10.44940241224591</v>
+        <v>13.27736464294556</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>13.8602911673551</v>
+        <v>15.51414615414861</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>5.739041858172175</v>
+        <v>6.951689318964714</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>6.704667528406336</v>
+        <v>7.254268035557523</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>9.856261791467306</v>
+        <v>11.25971784883811</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>19.60681521600935</v>
+        <v>19.52380006269145</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>22.65036586749516</v>
+        <v>22.91553400258209</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>27.65053387667129</v>
+        <v>26.42678476182085</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>3.049075111203003</v>
+        <v>7.497309494242376</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>20.45982156521368</v>
+        <v>21.85090026428144</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>36.32254170031008</v>
+        <v>34.57200201201623</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>45.11669586625013</v>
+        <v>42.26102143129296</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>14.49779207226281</v>
+        <v>14.81078365292692</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>22.74122782009556</v>
+        <v>21.43064845535314</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-1.39791624638157</v>
+        <v>4.266255400109415</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>16.000678856934</v>
+        <v>17.14250193450408</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>29.91531778283271</v>
+        <v>27.68498277094503</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>41.29433549581655</v>
+        <v>38.24498727049146</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>7.975183102411435</v>
+        <v>7.805265558219062</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>16.54203998244938</v>
+        <v>14.10177100924186</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>0.7474730313110776</v>
+        <v>6.209604687480976</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>15.50696022192229</v>
+        <v>17.07427664988408</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>25.06069440305533</v>
+        <v>23.76571848960316</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>39.04782899165158</v>
+        <v>36.2209307440796</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>8.383801282445564</v>
+        <v>14.25510062979953</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>37.50072889576176</v>
+        <v>37.09617709491198</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>38.06552017409514</v>
+        <v>35.10665731715969</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>39.47170175166528</v>
+        <v>35.87824520966448</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>8.955533713498056</v>
+        <v>14.60948320774931</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.46497214912317</v>
+        <v>30.31437465883735</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>7.933077759089713</v>
+        <v>16.79795397112116</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>45.43883684294959</v>
+        <v>45.62282922983041</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>59.44775365022306</v>
+        <v>56.76157594617597</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>58.81703542196455</v>
+        <v>56.08775557322518</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>6.221980851582309</v>
+        <v>15.50113665951789</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>39.54718986739169</v>
+        <v>41.12378638385715</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>3.964820272989822</v>
+        <v>12.41142884769477</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>41.90090202172503</v>
+        <v>42.14088690521142</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>57.06823987564094</v>
+        <v>54.22282377989417</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>56.94602815780439</v>
+        <v>53.78489188211016</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>1.425694764451315</v>
+        <v>11.54191446040191</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>33.60014700430906</v>
+        <v>35.75260901737772</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>0.1273484367854145</v>
+        <v>10.10784280415502</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>38.82827085269938</v>
+        <v>40.38970333961624</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>52.73017046405184</v>
+        <v>50.88693007210458</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>53.90100318140156</v>
+        <v>51.45975855288183</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-0.9924621808061254</v>
+        <v>9.125899299407589</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>28.3664537146064</v>
+        <v>31.39189134785576</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>32.78812732414658</v>
+        <v>30.75603504573974</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>33.73870851508054</v>
+        <v>31.72620488359731</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>9.686800794983936</v>
+        <v>16.62786005017162</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>32.01593155313064</v>
+        <v>33.41207687533285</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>37.59047448978164</v>
+        <v>36.08712809502768</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>42.43963478160936</v>
+        <v>40.29391111958635</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>56.10822819532899</v>
+        <v>52.84577629711055</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>56.35606991235264</v>
+        <v>53.24814901178389</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>10.88059760957329</v>
+        <v>21.54836141156279</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>50.52339560282921</v>
+        <v>52.01789127489373</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>69.16866179317185</v>
+        <v>65.96281947156545</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>69.4965468505556</v>
+        <v>66.44471388344226</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>49.54679143969075</v>
+        <v>46.61151994816725</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>52.08448374877182</v>
+        <v>48.97833364273941</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>6.275815903341773</v>
+        <v>18.06263728252122</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>47.26023860637163</v>
+        <v>49.097021640674</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>65.01232985697247</v>
+        <v>62.3989332551818</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>66.34907263795921</v>
+        <v>63.98221416340571</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>37.37785493776209</v>
+        <v>35.96935956246528</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>41.14543616404797</v>
+        <v>39.0329992993131</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>7.098981871583629</v>
+        <v>18.14504347587739</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>45.44634950828669</v>
+        <v>47.70249680526368</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>59.25719571060203</v>
+        <v>57.07260636138325</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>63.1036334319128</v>
+        <v>60.31825097294033</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>6.4635247181774</v>
+        <v>8.368773684520843</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>9.410138825396107</v>
+        <v>10.9203858428026</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>7.729691224085332</v>
+        <v>8.040634557565003</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>8.533508412689276</v>
+        <v>8.713191638472708</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>9.350607737183839</v>
+        <v>10.37214263752339</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>14.15538495035252</v>
+        <v>14.97643332947806</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>3.017718758324037</v>
+        <v>7.205644977134263</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>14.05793117053682</v>
+        <v>16.3262609700857</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>22.04755600512826</v>
+        <v>21.99665925940555</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>22.61742492548602</v>
+        <v>22.41857387520809</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>8.928808990808594</v>
+        <v>14.10501285727764</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>25.85090846065537</v>
+        <v>29.04555533533524</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-1.334385881484348</v>
+        <v>2.939139193267248</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>8.311431441480952</v>
+        <v>10.36992897313803</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>16.53398416368687</v>
+        <v>16.52864288487996</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>18.9899679111061</v>
+        <v>18.6581118731371</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>1.48850954473556</v>
+        <v>6.834111447471315</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>15.20228601140819</v>
+        <v>17.23190378140082</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-4.420377399055859</v>
+        <v>0.2012380807579852</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>3.807906514420274</v>
+        <v>6.982261363956429</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>10.57731591324385</v>
+        <v>11.25553034588784</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>14.47863839489571</v>
+        <v>14.27903901654169</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-0.7989398256334361</v>
+        <v>3.96711238278608</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>8.338647110932108</v>
+        <v>11.54066933859973</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>9.81508408129843</v>
+        <v>10.19775932522241</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>13.69956912972829</v>
+        <v>13.19654219198797</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>7.318035602211445</v>
+        <v>10.73399832454453</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>13.37952127587064</v>
+        <v>14.94547853237125</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>15.34899843332109</v>
+        <v>14.72834292660481</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>22.29827962721961</v>
+        <v>20.07230219200254</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>31.09731646628268</v>
+        <v>32.39660051480191</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>37.46636005718157</v>
+        <v>36.88089458159531</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>16.51596774399217</v>
+        <v>23.40715195416324</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>38.43597370721172</v>
+        <v>40.95953930061773</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>51.99993087324266</v>
+        <v>50.91172064368793</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>58.30065039779456</v>
+        <v>55.56493675984895</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>19.65507282881391</v>
+        <v>19.89628936494229</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>30.06917774147043</v>
+        <v>28.55174932084809</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>10.23251007880492</v>
+        <v>16.71285549219991</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>31.18299309333266</v>
+        <v>31.71299189009191</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>43.70302495388489</v>
+        <v>41.17255514389656</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>53.32125578765602</v>
+        <v>49.69277314407783</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>8.82538177494159</v>
+        <v>9.691063646943448</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>19.56710225933104</v>
+        <v>17.88822739623834</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>7.142081658741304</v>
+        <v>15.00786443051371</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>24.1094846071329</v>
+        <v>28.00660428258858</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>32.63366585513255</v>
+        <v>33.07658117148584</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>44.46416624866208</v>
+        <v>42.63475026977706</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>-0.1021515346785833</v>
+        <v>2.650646269184016</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>4.084778731277495</v>
+        <v>5.339334221169356</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>0.1167073579709985</v>
+        <v>1.428368173599331</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>1.009039273011496</v>
+        <v>1.65984811838706</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>14.73160507269784</v>
+        <v>18.1409303961595</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>31.55222248443622</v>
+        <v>31.45528590852723</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-4.322394497246247</v>
+        <v>0.7954768131656387</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>7.98339815804146</v>
+        <v>8.5860240458811</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>11.72716947128328</v>
+        <v>11.41027085350848</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>11.32591930469519</v>
+        <v>10.77175943831774</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>10.65605376322796</v>
+        <v>17.21548530993678</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>40.35373816744394</v>
+        <v>40.77664413511584</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>-4.756703067112667</v>
+        <v>1.047147174924348</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>7.290063721032556</v>
+        <v>8.855014531533726</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>11.15535269997457</v>
+        <v>11.49809783434859</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>11.82594735122898</v>
+        <v>11.55738963479693</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>8.788759525101305</v>
+        <v>16.39917057814709</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>36.70433644114327</v>
+        <v>38.05953006150035</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-6.227475057755825</v>
+        <v>-0.702988495172427</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>6.86985730034111</v>
+        <v>8.339573420781999</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>11.83232934872738</v>
+        <v>11.41667684740491</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>14.11761754172964</v>
+        <v>12.96340823156957</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>8.903001520590422</v>
+        <v>15.51081999008966</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>33.9374260857948</v>
+        <v>35.23163940283674</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>30.51118734196616</v>
+        <v>29.67053493659105</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>31.78883622891707</v>
+        <v>30.92946424889691</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>12.0193445463686</v>
+        <v>16.76582162079803</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>32.52544261532215</v>
+        <v>33.03413299056155</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>31.95549902840709</v>
+        <v>31.52989534615679</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>36.52318613167382</v>
+        <v>35.18562769639608</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>49.58606622468674</v>
+        <v>47.35544240928962</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>50.80139343425896</v>
+        <v>48.27973721859637</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>15.72558231348086</v>
+        <v>23.78750586304989</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>53.50037864276116</v>
+        <v>54.26814500666653</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>64.21424010749442</v>
+        <v>62.14984677331609</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>64.90457817624402</v>
+        <v>62.43866354106938</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>45.40225044813404</v>
+        <v>43.77564193231413</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>48.97458903593954</v>
+        <v>46.54149405085525</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>13.6263477621224</v>
+        <v>22.76623181745396</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>51.97356474528033</v>
+        <v>53.29267141380634</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>61.96462414366953</v>
+        <v>60.44166117397243</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>63.93603324466927</v>
+        <v>61.94770174918948</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>38.51518924720494</v>
+        <v>37.00971704444318</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>43.10646191531256</v>
+        <v>40.4585330686985</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>14.49843504003179</v>
+        <v>23.24201577642872</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>50.33682802714173</v>
+        <v>52.65106863133889</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>58.50041738145951</v>
+        <v>58.11491798473205</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>62.90998539461503</v>
+        <v>61.19505236990311</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>11.01208055432966</v>
+        <v>12.5348639183847</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>15.53594639537204</v>
+        <v>16.40545036892478</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>14.55276589786683</v>
+        <v>15.0828528980428</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>14.87003093098707</v>
+        <v>14.8012470969188</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>7.172665787404608</v>
+        <v>8.138888296019374</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>9.093292705499728</v>
+        <v>9.798208441997577</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>5.64768676383116</v>
+        <v>8.456016731869344</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>17.31236779574759</v>
+        <v>17.79639572143808</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>25.88222309719129</v>
+        <v>24.86112342647225</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>25.89296556820925</v>
+        <v>24.58489114389025</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>0.6474074846142912</v>
+        <v>5.036672921669261</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>13.25282378529337</v>
+        <v>15.55903194476855</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>3.293110288248705</v>
+        <v>7.128681433425829</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>14.10116958558564</v>
+        <v>15.89935176043324</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>23.12925619200266</v>
+        <v>23.46766024425928</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>24.352890191792</v>
+        <v>23.96205874412693</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-3.572241490520312</v>
+        <v>2.016173089611211</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>6.445168235714686</v>
+        <v>9.814221745480264</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-2.23884820332804</v>
+        <v>1.953995997939362</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>9.29369744544613</v>
+        <v>11.39564777602555</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>17.02555872129355</v>
+        <v>17.15016750690052</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>19.20611084669236</v>
+        <v>18.47923315631816</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-2.887192962525521</v>
+        <v>1.707195340586246</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>4.896424184136155</v>
+        <v>7.969706009018115</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>6.282574787765867</v>
+        <v>7.196556579436319</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>9.52803672266316</v>
+        <v>9.975247916725063</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>9.269914480534386</v>
+        <v>12.30656105138825</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>17.34644820181324</v>
+        <v>18.60673634346439</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>17.2094553433178</v>
+        <v>17.60115005464053</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>22.06954919462307</v>
+        <v>21.31630042089289</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>20.8548024345707</v>
+        <v>21.18071004047817</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>26.28165211350417</v>
+        <v>25.7035046773924</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>11.61152181360973</v>
+        <v>17.56215568620078</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>34.45964725767129</v>
+        <v>35.9124911356686</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>47.33196562017677</v>
+        <v>45.99688272522903</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>50.44698229680903</v>
+        <v>48.36593994031699</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>13.74161688043201</v>
+        <v>14.85419169082257</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>21.98787005933366</v>
+        <v>21.56841895308077</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>8.032764819363528</v>
+        <v>14.66008947926169</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>30.842143129867</v>
+        <v>32.43522302218141</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>43.20594639804663</v>
+        <v>42.03813842005373</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>48.12649218988651</v>
+        <v>46.1750549798837</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>7.01173571764798</v>
+        <v>8.091729733487959</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>14.80095128903671</v>
+        <v>14.21016166480344</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>6.04566445375869</v>
+        <v>12.30005476103609</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>27.16393302220162</v>
+        <v>29.43998536474955</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>34.82372299379516</v>
+        <v>34.30926005163136</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>41.00298618963789</v>
+        <v>39.11648412577254</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>6.380049587082659</v>
+        <v>6.639440207920519</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>5.497498060934443</v>
+        <v>6.145085505489579</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>1.666887475545806</v>
+        <v>2.570953636755455</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>1.171944678069298</v>
+        <v>2.416976888319567</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>6.783424637897934</v>
+        <v>6.59737457535622</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>4.834190206309014</v>
+        <v>5.067821600151731</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>1.159187624018799</v>
+        <v>2.661517713901748</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>5.413361404856762</v>
+        <v>5.948630827567225</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>9.612581650443373</v>
+        <v>9.598123879397431</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>8.194492547375567</v>
+        <v>8.878682494781234</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-2.862879727349988</v>
+        <v>-0.4284696498523601</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>3.69954216478563</v>
+        <v>5.110179463401771</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>0.0862907953294183</v>
+        <v>2.110844161916969</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>3.185823821796362</v>
+        <v>4.496168580165175</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>7.505484354048395</v>
+        <v>8.213645719194481</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>7.075538935190224</v>
+        <v>7.995854481633206</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>-5.758067846959186</v>
+        <v>-2.455550061480647</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-2.016742077432362</v>
+        <v>-0.04200279423073283</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>-4.762327462904331</v>
+        <v>-1.722835399657892</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>0.1898417324069257</v>
+        <v>2.349854917032889</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>4.18716530678206</v>
+        <v>5.379883550944189</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>5.045279923132338</v>
+        <v>6.152798329151764</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-4.091099253208323</v>
+        <v>-1.474747085676047</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>-1.343023823415326</v>
+        <v>0.4247468790113622</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>-0.04933370005185367</v>
+        <v>0.7238369452329145</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>0.2724035956606485</v>
+        <v>0.9148845707994866</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>10.53800809930621</v>
+        <v>12.41557455879833</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>13.38565636848259</v>
+        <v>14.89418919748793</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>12.38361464682924</v>
+        <v>12.99856263501539</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>15.12528313289802</v>
+        <v>14.97508647311416</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>8.465147983995752</v>
+        <v>8.387360202129084</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>9.942045041871848</v>
+        <v>9.28929129507457</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>10.56741875002329</v>
+        <v>14.77783871183237</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>25.58857591646513</v>
+        <v>26.97108972280542</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>37.02080928383516</v>
+        <v>36.05558398249238</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>37.4601332497164</v>
+        <v>36.31004808827918</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>2.533444418617648</v>
+        <v>2.874364526714526</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>6.457216707292712</v>
+        <v>5.579525822207373</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>8.128916719058111</v>
+        <v>12.89319178951796</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>22.59886544863806</v>
+        <v>23.97050650141244</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>33.67273024072476</v>
+        <v>32.98411234533865</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>35.7304741965481</v>
+        <v>34.76076133737706</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>-0.8673321841190145</v>
+        <v>-0.2603991710967328</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>3.212693874886337</v>
+        <v>2.372118454533496</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>7.047173669725584</v>
+        <v>11.18196318537703</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>20.99728604418117</v>
+        <v>22.67973258386767</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>28.05430931464616</v>
+        <v>27.33796402912942</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>31.8945617333451</v>
+        <v>30.08810256149674</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>15.59174973668156</v>
+        <v>17.72575634133659</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>26.72410305619612</v>
+        <v>26.6200601477821</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>22.25373158180101</v>
+        <v>21.39212085822009</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>24.22728423269606</v>
+        <v>23.13637869239497</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>14.50506838721009</v>
+        <v>15.32235187574637</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>19.05694720529591</v>
+        <v>19.16415243929178</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>17.47433714317428</v>
+        <v>20.91970557383592</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>38.55420379277369</v>
+        <v>37.93575119423945</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>49.1832755334374</v>
+        <v>47.37038990435769</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>49.71777876891047</v>
+        <v>47.71233850016111</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>11.00914724783368</v>
+        <v>14.58023232634452</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.47366747890851</v>
+        <v>30.00349708483989</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>15.89527530711487</v>
+        <v>20.35877578743537</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>36.51612646184972</v>
+        <v>36.98336519397009</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>47.31345973200327</v>
+        <v>45.78382023444667</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>49.24101194624678</v>
+        <v>47.37428294563118</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>7.703126498472688</v>
+        <v>13.41319463080382</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>24.18869535824841</v>
+        <v>26.08260886336472</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>3.848320047614799</v>
+        <v>7.762207792937247</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>23.74230240602843</v>
+        <v>23.77751032734735</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>30.79371533180301</v>
+        <v>28.36649004566549</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>34.90244619232602</v>
+        <v>31.99398218835058</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>5.449670309240794</v>
+        <v>10.29446435632948</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>19.38555457815955</v>
+        <v>21.23286038300507</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>11.20386412634146</v>
+        <v>10.83630253886761</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>12.53022694918945</v>
+        <v>11.58918637875017</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>17.45755981809599</v>
+        <v>19.46358457954123</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>26.41999016838537</v>
+        <v>26.67623757978035</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>20.55422994371034</v>
+        <v>19.70722331454104</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>24.06684589374984</v>
+        <v>22.35442583145531</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>39.04173910021836</v>
+        <v>37.12797404257173</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>40.84541931239917</v>
+        <v>37.903862865255</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>23.11438550906345</v>
+        <v>29.00701544711247</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>50.21669907666767</v>
+        <v>51.5559588776411</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>63.67994606670155</v>
+        <v>61.43306370233019</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>64.72018305790246</v>
+        <v>61.72952629272578</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>33.31343899580968</v>
+        <v>32.31590317578074</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>38.63738728809654</v>
+        <v>36.58122298696494</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>19.84164761723753</v>
+        <v>26.82578212859774</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>47.33114132410337</v>
+        <v>48.63154967283116</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>60.26163519948607</v>
+        <v>58.10993220788267</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>63.90237740649731</v>
+        <v>61.21835253271113</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>19.53136778926122</v>
+        <v>18.99555949098296</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>26.59223488021706</v>
+        <v>24.44047832738039</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>16.57088096519674</v>
+        <v>22.77464910357219</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>41.32226639175354</v>
+        <v>42.70689020273983</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>46.29287225831194</v>
+        <v>44.9056582580898</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>53.29657707180587</v>
+        <v>50.61966886726874</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>17.48020989954241</v>
+        <v>21.5958549678309</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>40.94683768816331</v>
+        <v>40.72513781731674</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>41.3110292828698</v>
+        <v>40.15397099760576</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>42.98725826266088</v>
+        <v>41.07980444503688</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>11.62690801025641</v>
+        <v>15.14391606618076</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>27.59117979811185</v>
+        <v>27.70747188544859</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>13.26138666822751</v>
+        <v>19.30499147380149</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>44.00509594337211</v>
+        <v>43.58643242431847</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>54.533880575098</v>
+        <v>52.33605392094828</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>54.69522041357426</v>
+        <v>52.10727685084439</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>9.155596811356896</v>
+        <v>15.82847069014508</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>36.55015325011319</v>
+        <v>37.79349472320564</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>10.01163084664564</v>
+        <v>16.50462280676832</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>39.74582640018603</v>
+        <v>39.91912053413071</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>50.68279287678271</v>
+        <v>49.29370285862927</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>52.14817607902366</v>
+        <v>50.08955539111174</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>4.76629215876951</v>
+        <v>12.52874178041488</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.54779234539826</v>
+        <v>31.49375849732198</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>8.647189759452662</v>
+        <v>15.50937703321691</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>38.85881859119191</v>
+        <v>39.81551898436205</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>50.01422671434329</v>
+        <v>49.13785754279792</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>53.51295888143625</v>
+        <v>51.46934279696559</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>3.386876090056823</v>
+        <v>10.48185414551256</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>25.08147271603652</v>
+        <v>27.36023676186236</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>26.61650973459381</v>
+        <v>25.97242962304639</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>28.50601011292747</v>
+        <v>27.58397374905822</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>7.434738054957926</v>
+        <v>12.90116882297574</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>25.76596069073006</v>
+        <v>27.07172554577249</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>27.68702464753088</v>
+        <v>27.64660125270672</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>34.37179460341753</v>
+        <v>32.85542781266939</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>46.69735483149687</v>
+        <v>45.21720250373775</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>49.34109337023953</v>
+        <v>47.00396242124314</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>10.15842450634649</v>
+        <v>18.94118790732971</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>44.71995704143458</v>
+        <v>46.37784867146897</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>58.71407474769492</v>
+        <v>57.44899536682487</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>61.85847339766557</v>
+        <v>59.5549371303619</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>39.25115087231209</v>
+        <v>38.41486837456522</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>45.07392870568365</v>
+        <v>43.12219494956503</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>5.104360308603447</v>
+        <v>14.64978800558512</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>39.45292304288733</v>
+        <v>40.99986418640808</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>52.52095885302589</v>
+        <v>51.43424222055545</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>57.7569206960187</v>
+        <v>55.86484924349307</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>29.98200802990974</v>
+        <v>29.75578888899444</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>37.06811458960143</v>
+        <v>35.20674922958821</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>4.27553570862883</v>
+        <v>13.06875162168111</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>35.22008756348596</v>
+        <v>37.56269744445204</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>45.21785092235747</v>
+        <v>44.71872477289041</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>53.68861207364188</v>
+        <v>51.24159527637096</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>13.38329955612118</v>
+        <v>17.31822321563795</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>37.89537997128155</v>
+        <v>37.91472163038212</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>33.52123632652514</v>
+        <v>32.53731157268557</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>33.67514730434247</v>
+        <v>32.95727396308311</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>13.4442549600571</v>
+        <v>16.85323634202365</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>31.05403257142441</v>
+        <v>31.04005320913968</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>9.946089623626694</v>
+        <v>15.31693610043752</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>44.15995636737676</v>
+        <v>43.05762920814203</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>53.53509943719332</v>
+        <v>51.06978757640884</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>51.96213335456275</v>
+        <v>49.83927331575615</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>7.430651420023409</v>
+        <v>14.49917385154801</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>39.94109663283312</v>
+        <v>40.49437295004813</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>6.92846306992805</v>
+        <v>13.88936845583699</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>41.0401863874222</v>
+        <v>41.88900786082953</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>50.95342362669985</v>
+        <v>50.29545460519019</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>50.42154696207366</v>
+        <v>49.83088774789071</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>1.770501777555854</v>
+        <v>10.15342087157225</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>32.73788564024916</v>
+        <v>34.0860964362435</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>2.74026782820312</v>
+        <v>10.0875626871784</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>36.91283431563272</v>
+        <v>38.46832293447405</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>46.58568826649161</v>
+        <v>46.70511897978008</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>47.57497782162061</v>
+        <v>47.38230302045925</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>1.900929353285207</v>
+        <v>10.00126596835274</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.68177216393448</v>
+        <v>31.68935269321382</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>28.0592132728031</v>
+        <v>27.57163412182281</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.38539250994213</v>
+        <v>28.38498689159802</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>10.18505923749278</v>
+        <v>14.59648019366741</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>29.54373137083221</v>
+        <v>30.03247326881646</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.97096264487714</v>
+        <v>29.47661558632541</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>33.69308340520305</v>
+        <v>32.7213895484952</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>52.75765295855558</v>
+        <v>51.09916070586628</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>54.19323549085285</v>
+        <v>51.61469118405215</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>10.01892527909283</v>
+        <v>18.41165766070707</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>48.67804076961379</v>
+        <v>49.86414626380541</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>65.77586607343429</v>
+        <v>63.25680844339126</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>66.24688292738247</v>
+        <v>63.33845683443595</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>44.50226673677998</v>
+        <v>42.99528291977567</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>49.19722023851958</v>
+        <v>46.4886981325561</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>4.600005679595839</v>
+        <v>14.03154695582332</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>44.08772176020195</v>
+        <v>45.3605821335523</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>60.02762275094424</v>
+        <v>57.70251185046516</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>62.75222668122667</v>
+        <v>60.08894152870905</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>34.44393072542049</v>
+        <v>34.12336164426748</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>40.77947957855862</v>
+        <v>38.76639684832572</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>6.793304454779111</v>
+        <v>15.54252980662604</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>42.74214491181706</v>
+        <v>44.20229181939774</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>53.97386408704268</v>
+        <v>52.73364327853268</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>60.04437904216216</v>
+        <v>57.70986672674597</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>16.90032071844259</v>
+        <v>20.39401413088033</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>38.058817353965</v>
+        <v>38.46452528087718</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>39.95731496707863</v>
+        <v>39.67940001206688</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>38.79769320868095</v>
+        <v>38.82051898001298</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>22.6691847691523</v>
+        <v>24.65125120321104</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>34.65602626621308</v>
+        <v>34.82961235650355</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>14.37044559838158</v>
+        <v>18.17624172259857</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>45.97071012684426</v>
+        <v>44.34962919007812</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>60.71821707721121</v>
+        <v>58.41299903524802</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>58.34258986326354</v>
+        <v>56.4606936216467</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>14.83919215790122</v>
+        <v>20.94490040493529</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>40.4707571631123</v>
+        <v>41.62277574236172</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>14.40276235279674</v>
+        <v>19.10236533142525</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>46.48883993667541</v>
+        <v>46.55142167819494</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>60.85375427778003</v>
+        <v>58.62915718799676</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>59.54885833468644</v>
+        <v>57.48619910489424</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>12.12552798610065</v>
+        <v>19.52212991116556</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>36.63130168588822</v>
+        <v>38.7806350785075</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>8.9012784385666</v>
+        <v>13.26935479069379</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>41.54795660598381</v>
+        <v>41.9127175246113</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>55.82164873297098</v>
+        <v>54.16228020148856</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>55.39931154717112</v>
+        <v>53.37982324820385</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>12.71824436800197</v>
+        <v>19.06354556677241</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>36.25975511815</v>
+        <v>38.37702227686793</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>32.67151137356917</v>
+        <v>32.54100158599221</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>33.80499614818292</v>
+        <v>33.24581001872214</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>18.0688249124111</v>
+        <v>20.77861388945728</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>31.99361095681783</v>
+        <v>32.5889851804435</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>36.43203206746546</v>
+        <v>36.23572187962748</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>38.46816791631809</v>
+        <v>37.79280547622155</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>54.10525291626512</v>
+        <v>53.50843591572148</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>56.14864642727659</v>
+        <v>54.80348227575328</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>16.92645274363967</v>
+        <v>23.36861609955505</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>48.81882796648839</v>
+        <v>49.8534373600172</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>70.05962280904569</v>
+        <v>67.90995011192126</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>69.93221488346218</v>
+        <v>67.31062420605522</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>49.16239924211824</v>
+        <v>48.62562896155669</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>54.31059022040044</v>
+        <v>52.69921399364512</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>14.04103110537</v>
+        <v>21.69973482222652</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>46.9200644070066</v>
+        <v>48.53666046773004</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>66.91704876186576</v>
+        <v>65.05791682338257</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>69.06451322510711</v>
+        <v>66.56150350147507</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>42.09218002610711</v>
+        <v>41.79717052936863</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>47.82805582178428</v>
+        <v>45.83625472619509</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>14.92823588563964</v>
+        <v>22.26458414373517</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>45.73372814028478</v>
+        <v>48.1211346778184</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>61.23657939688245</v>
+        <v>61.15458056776431</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>66.01189578662161</v>
+        <v>64.51306190423342</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>9.836110124269034</v>
+        <v>14.07474722280714</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.63673358340146</v>
+        <v>30.22510423041074</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>25.36469258334832</v>
+        <v>25.09125543584556</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>27.59648200307841</v>
+        <v>26.87458938686143</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>9.676669211957645</v>
+        <v>12.78256901130325</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>24.72831248025238</v>
+        <v>25.0470677394675</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>9.123246721960642</v>
+        <v>16.13661430345021</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>40.59737892431698</v>
+        <v>41.47969228048585</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>50.1064369949512</v>
+        <v>48.47563290700425</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>50.42632446333344</v>
+        <v>48.73676221944298</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>6.315370980162385</v>
+        <v>12.94368167801461</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>36.61373332700727</v>
+        <v>37.57744801225327</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>6.399245920490447</v>
+        <v>13.67684079242461</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>37.11954317527078</v>
+        <v>37.96319923202891</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>48.21106438603354</v>
+        <v>46.93428531229851</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>49.89409961259321</v>
+        <v>48.25096734179768</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>2.286282487690507</v>
+        <v>10.57210070914129</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>30.29524324514277</v>
+        <v>32.15601340222887</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>2.10473080193281</v>
+        <v>9.159781921763543</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>30.11087672779425</v>
+        <v>31.61360604695597</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>39.20794329016343</v>
+        <v>38.35369812055859</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>43.93007732802626</v>
+        <v>42.24434217018877</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>0.1684387001581342</v>
+        <v>7.55144253816081</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>22.83034860891581</v>
+        <v>25.50796758425437</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>20.83650989748516</v>
+        <v>21.10634741949056</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>21.67449699629174</v>
+        <v>21.91659105846731</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>8.81006713380437</v>
+        <v>13.10222993353462</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>24.05263854676</v>
+        <v>25.33117382315909</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>24.05414107668295</v>
+        <v>24.10209287707788</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>29.02939657219995</v>
+        <v>28.20746875452485</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>46.13587572672422</v>
+        <v>44.54573639498504</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>46.93332870772751</v>
+        <v>45.01607180605068</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>11.04916536387621</v>
+        <v>18.59286177053373</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>46.29865843263642</v>
+        <v>47.38179917531919</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>60.15418124399583</v>
+        <v>57.12783868384132</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>61.52502995356934</v>
+        <v>58.16488108694268</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>39.76502567462974</v>
+        <v>39.1165162833676</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>43.89133935658137</v>
+        <v>42.59500594601398</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>5.86978085106589</v>
+        <v>14.84664469041158</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>41.11483952312356</v>
+        <v>42.34222907940666</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>54.50921286293509</v>
+        <v>52.27650913910861</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>58.28895182989783</v>
+        <v>55.84335979919962</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>26.09952076023238</v>
+        <v>26.51979270587326</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>32.53106874738252</v>
+        <v>31.5049547707415</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>2.68267296702146</v>
+        <v>11.24550376917768</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>32.05571563721427</v>
+        <v>34.96568164760782</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>40.88362693948105</v>
+        <v>40.45519616701883</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>48.9317149382485</v>
+        <v>46.97942930850357</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>11.25571326403745</v>
+        <v>12.74488847220277</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>14.69754233656686</v>
+        <v>16.07494159510354</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>14.71188698215971</v>
+        <v>15.09615353841981</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>15.87918696283297</v>
+        <v>15.81505322634012</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>10.56525472047113</v>
+        <v>12.49646597693153</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>18.62986863539134</v>
+        <v>19.82613780953969</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>8.371158898878136</v>
+        <v>11.39734682769753</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>20.52463972918656</v>
+        <v>21.75485111592311</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>30.43875280295909</v>
+        <v>29.83646937091936</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>30.86429512827359</v>
+        <v>29.87226425985939</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>9.644787421745276</v>
+        <v>15.36779001737411</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>31.29821686265021</v>
+        <v>34.13249533585258</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>3.780848313115506</v>
+        <v>7.53500283824517</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>15.17828383870753</v>
+        <v>17.02250163032744</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>24.54532771901302</v>
+        <v>24.08061123395148</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>26.52792401008309</v>
+        <v>25.44842551059634</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>2.224073429625829</v>
+        <v>8.209684295800482</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>21.32603606353759</v>
+        <v>23.25939639867208</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>1.385312819257251</v>
+        <v>5.365367586496433</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>12.02894893793668</v>
+        <v>14.50255469295502</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>21.52386186783474</v>
+        <v>21.58190525742255</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>25.36986739073953</v>
+        <v>24.39213456520026</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>6.211630638511338</v>
+        <v>11.49074091462506</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>21.33972350426578</v>
+        <v>23.80927766789443</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>14.87497639294694</v>
+        <v>15.42905185653276</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>17.66419569443707</v>
+        <v>17.48722875763592</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>8.568136653450665</v>
+        <v>10.94923118981875</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>17.2865798610754</v>
+        <v>18.42220256146617</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>15.2084963637482</v>
+        <v>14.99875646992522</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>20.31437307025444</v>
+        <v>18.72371736520397</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>40.09180828361151</v>
+        <v>40.42575396722092</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>44.21240139413717</v>
+        <v>43.12814266947171</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>18.11538846889854</v>
+        <v>24.69518505673739</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>44.95441373168595</v>
+        <v>47.84902877243978</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>56.98516992127522</v>
+        <v>56.43659965185989</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>60.30405943403946</v>
+        <v>58.37984752831031</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>28.89611806756667</v>
+        <v>28.29048705802925</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>36.94749098828714</v>
+        <v>34.86222945959307</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>10.88656253373828</v>
+        <v>17.17004676655651</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>37.65406667589392</v>
+        <v>38.94974013998579</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>47.97183684838811</v>
+        <v>45.85714260732303</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>54.31660333516903</v>
+        <v>51.03399780764899</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>23.85824033708474</v>
+        <v>24.1936447870014</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>33.85899117793842</v>
+        <v>32.05785054888837</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>8.754502197076253</v>
+        <v>14.66500295300879</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>30.72330871846832</v>
+        <v>32.53718959869841</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>36.5185088137644</v>
+        <v>35.44138325020128</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>46.99377345625012</v>
+        <v>44.12320471174218</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>5.038488102167719</v>
+        <v>7.185496280186523</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>17.3275077310327</v>
+        <v>15.44246179684863</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>17.40013925494817</v>
+        <v>15.85730333376535</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>17.66298216540257</v>
+        <v>15.47212863565379</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>11.57960054863136</v>
+        <v>13.00281176533068</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>18.08481484278575</v>
+        <v>18.36890436053876</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>4.341155264895541</v>
+        <v>6.769373716963234</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>27.40428183852926</v>
+        <v>23.89591453326797</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>39.02580426557986</v>
+        <v>35.32711483867012</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>38.53063281406735</v>
+        <v>34.59977280364318</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>4.210526823159679</v>
+        <v>9.126203912636882</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>24.80837500242111</v>
+        <v>25.68867807877124</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>6.100266765059345</v>
+        <v>12.13328526642821</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>29.78203434328607</v>
+        <v>31.05349407604001</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>40.34322735197156</v>
+        <v>38.75373034525989</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>41.0643880768994</v>
+        <v>39.04411364713357</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>2.286081310691266</v>
+        <v>9.776231394071829</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>21.84693481157384</v>
+        <v>25.30802533495422</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>0.4165229453356751</v>
+        <v>6.556619424070458</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>24.11065573430283</v>
+        <v>25.69538618297344</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>34.62998632179931</v>
+        <v>33.26181471841306</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>36.30223717020255</v>
+        <v>34.01167610128967</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>3.47928089848784</v>
+        <v>9.896248623329022</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>21.40374102586335</v>
+        <v>24.51084112730307</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>13.66327798390957</v>
+        <v>14.07466701735307</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>18.81548874526846</v>
+        <v>18.41300936747569</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>3.727161454096539</v>
+        <v>6.786839409941106</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>12.12884710571946</v>
+        <v>12.32771947774176</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>13.61751077055053</v>
+        <v>13.20550201151171</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>18.92181246950399</v>
+        <v>17.49304610215045</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>34.63794750831258</v>
+        <v>33.84583157442041</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>41.37429244456231</v>
+        <v>39.88387343523767</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>5.546070476753766</v>
+        <v>12.69600308771755</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>32.50857287316066</v>
+        <v>33.91532585781234</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>49.92458087008001</v>
+        <v>48.19276596639239</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>53.75765994739306</v>
+        <v>51.36345026341955</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>30.16390593035552</v>
+        <v>30.52271898671352</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>40.14971018271682</v>
+        <v>39.46058703665422</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>3.683562455174595</v>
+        <v>12.28729138008143</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>31.77351975624016</v>
+        <v>34.47122154786291</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>47.51009406814717</v>
+        <v>46.00596158666321</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>53.78172002629333</v>
+        <v>51.39538470971009</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>23.77098352797204</v>
+        <v>24.19436885137011</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>34.32307650132011</v>
+        <v>33.00113619569451</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>2.555066203179287</v>
+        <v>10.31705927446982</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>27.75312701113418</v>
+        <v>30.10693369159555</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>39.02242223429716</v>
+        <v>37.94780756998068</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>47.99324141604366</v>
+        <v>45.44578043383245</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>12.9771193349746</v>
+        <v>16.95161367307706</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>38.82787457628899</v>
+        <v>38.19017432688775</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>42.41395134101067</v>
+        <v>39.91418309572752</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>43.24280140342474</v>
+        <v>40.70621099274986</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>13.89150116275601</v>
+        <v>17.05352111111984</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>30.83676691750685</v>
+        <v>30.84580707049894</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>8.583312199418199</v>
+        <v>15.28221865892192</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>42.78897840795571</v>
+        <v>42.7124951704292</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>59.07353068201277</v>
+        <v>56.44673394206168</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>57.98613329068045</v>
+        <v>55.45758357218054</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>9.075536152541689</v>
+        <v>16.06476479035622</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>38.38159264906797</v>
+        <v>39.61400465614078</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>6.854336465648636</v>
+        <v>13.87679292487244</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>41.19493992877735</v>
+        <v>41.86480085179905</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>58.31713633393619</v>
+        <v>55.65954309730037</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>58.16696991649392</v>
+        <v>55.32955192921641</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>6.309470630793221</v>
+        <v>14.57530853845298</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>34.1977519043834</v>
+        <v>36.32809554517103</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>2.508350472994753</v>
+        <v>10.16231552653534</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>38.29252239657671</v>
+        <v>39.83610854409335</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>54.9379198974965</v>
+        <v>53.47570201893652</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>56.11222486075964</v>
+        <v>54.14728734232347</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>6.556851667661995</v>
+        <v>13.87264577429177</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>32.94066867070707</v>
+        <v>34.9575608693944</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>32.24697279492688</v>
+        <v>30.78949084940921</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>33.56737998033957</v>
+        <v>31.94328515623085</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>9.245468116284643</v>
+        <v>13.69292317884706</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>27.78659601150897</v>
+        <v>28.61810843776411</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>32.45283560955546</v>
+        <v>31.78605782009596</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>37.05332452942355</v>
+        <v>35.42602994296736</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>53.49039244861734</v>
+        <v>51.22712705867864</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>54.77592513197285</v>
+        <v>52.06561288199528</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>11.50582270917055</v>
+        <v>19.97991318473083</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>46.77754453337254</v>
+        <v>48.41687651448596</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>65.95236594952915</v>
+        <v>64.06741982196834</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>66.92967112451512</v>
+        <v>64.44025745031323</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>48.88254478928517</v>
+        <v>47.08529730220363</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>52.92242937082283</v>
+        <v>50.40611935854155</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>8.315488112410232</v>
+        <v>17.56367815597088</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>44.50270236177649</v>
+        <v>46.08440030040417</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>62.73536857752926</v>
+        <v>60.65352477128078</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>65.46900334758089</v>
+        <v>62.89813443015557</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>41.20388062481562</v>
+        <v>39.9482111196974</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>46.15736680036611</v>
+        <v>43.65914048488825</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>8.10943414545428</v>
+        <v>16.67131757824998</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>42.64599605383286</v>
+        <v>44.49296589708662</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>55.80338488943372</v>
+        <v>54.55583712746774</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>61.20866812118435</v>
+        <v>58.63986250195956</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>5.676813722331438</v>
+        <v>9.562603377210159</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>24.17751283742667</v>
+        <v>24.24883624583949</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>22.15074704732299</v>
+        <v>21.06765483305071</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>23.42016157797687</v>
+        <v>22.25564731598276</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>10.95414630442785</v>
+        <v>13.88895898618504</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>25.54536644386717</v>
+        <v>25.36583185977157</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>8.717410693496969</v>
+        <v>15.66586338756109</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>40.12982719947086</v>
+        <v>40.73971571768743</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>49.64049925825873</v>
+        <v>47.70794404548526</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>48.76222748952332</v>
+        <v>47.01277672561692</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>7.070321755036602</v>
+        <v>13.52573228312583</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>37.65061021275082</v>
+        <v>38.00697770294529</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>6.915812718382099</v>
+        <v>14.42369854960866</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>37.95231555225596</v>
+        <v>38.73475191654472</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>48.38918119634069</v>
+        <v>47.01296052933557</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>48.90249847041525</v>
+        <v>47.42554147468216</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>3.105089462022114</v>
+        <v>11.730337229131</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>31.5933779936894</v>
+        <v>33.25554684094806</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>1.623302014174136</v>
+        <v>8.761219304291181</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>29.31254765590116</v>
+        <v>30.67731898217956</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>39.39482282495416</v>
+        <v>38.31790108048146</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>43.01738269911825</v>
+        <v>41.24194640531396</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>1.951278470353682</v>
+        <v>9.259701575616401</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>24.61505144922289</v>
+        <v>26.6294735978366</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>23.49877556804876</v>
+        <v>23.8481952146015</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>24.61802457898064</v>
+        <v>25.13335179944528</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>8.002200468475174</v>
+        <v>11.87225856668633</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>21.97616109955067</v>
+        <v>22.37077634276532</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>22.16608724536133</v>
+        <v>21.84497207758161</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>27.32836878749398</v>
+        <v>26.36376030264885</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>47.64584171061883</v>
+        <v>46.22543236686041</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>48.35439456677319</v>
+        <v>46.66214094772654</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>10.93559561805324</v>
+        <v>18.66868787238591</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>45.91353988811174</v>
+        <v>46.72953034522362</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>58.5846494483538</v>
+        <v>55.98289530767275</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>59.95076678584785</v>
+        <v>57.10906997058282</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>41.1423085439333</v>
+        <v>41.08816902756238</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>45.20466540522993</v>
+        <v>44.63005924484775</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>5.865791124141694</v>
+        <v>15.291106223647</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>40.93907655273929</v>
+        <v>41.91735478619705</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>52.85857628812625</v>
+        <v>51.18516598249053</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>56.74469068026582</v>
+        <v>55.01210688872027</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>28.97199535741445</v>
+        <v>29.42383955666308</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>35.713200857655</v>
+        <v>34.81067164544219</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>2.332673583000037</v>
+        <v>10.32085092864887</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>30.58304715571986</v>
+        <v>31.96205330550151</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>38.99088533794063</v>
+        <v>37.72755616559273</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>47.64848603110887</v>
+        <v>45.03839004734202</v>
       </c>
     </row>
   </sheetData>
